--- a/results.xlsx
+++ b/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="19440" windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>simuA</t>
   </si>
   <si>
-    <t>network1</t>
+    <t>network</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>seed</t>
   </si>
 </sst>
 </file>
@@ -47,8 +53,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -520,138 +534,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -965,20 +982,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="12" max="12" width="10.375"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1012,8 +1032,14 @@
       <c r="K2">
         <v>10</v>
       </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1051,8 +1077,11 @@
         <f>AVERAGE(B3:K3)</f>
         <v>0.97653</v>
       </c>
+      <c r="M3">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1072,7 +1101,7 @@
         <v>0.9127</v>
       </c>
       <c r="G4">
-        <v>0.8713</v>
+        <v>0.9314</v>
       </c>
       <c r="H4">
         <v>0.8803</v>
@@ -1087,10 +1116,14 @@
         <v>0.9456</v>
       </c>
       <c r="L4">
-        <v>0.9314</v>
+        <f>AVERAGE(B4:K4)</f>
+        <v>0.93457</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1122,45 +1155,314 @@
         <v>0.9559</v>
       </c>
       <c r="K5">
-        <v>0.9559</v>
+        <v>0.9035</v>
       </c>
       <c r="L5">
-        <v>0.9035</v>
+        <f>AVERAGE(B5:K5)</f>
+        <v>0.9525</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.9317</v>
+      </c>
+      <c r="C6">
+        <v>0.9558</v>
+      </c>
+      <c r="D6">
+        <v>0.9558</v>
+      </c>
+      <c r="E6">
+        <v>0.9606</v>
+      </c>
+      <c r="F6">
+        <v>0.9606</v>
+      </c>
+      <c r="G6">
+        <v>0.9606</v>
+      </c>
+      <c r="H6">
+        <v>0.9606</v>
+      </c>
+      <c r="I6">
+        <v>0.9606</v>
+      </c>
+      <c r="J6">
+        <v>0.9606</v>
+      </c>
+      <c r="K6">
+        <v>0.9228</v>
+      </c>
+      <c r="L6">
+        <f>AVERAGE(B6:K6)</f>
+        <v>0.95297</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.9504</v>
+      </c>
+      <c r="C7">
+        <v>0.9359</v>
+      </c>
+      <c r="D7">
+        <v>0.9554</v>
+      </c>
+      <c r="E7">
+        <v>0.975</v>
+      </c>
+      <c r="F7">
+        <v>0.9849</v>
+      </c>
+      <c r="G7">
+        <v>0.9799</v>
+      </c>
+      <c r="H7">
+        <v>0.9901</v>
+      </c>
+      <c r="I7">
+        <v>0.975</v>
+      </c>
+      <c r="J7">
+        <v>0.99</v>
+      </c>
+      <c r="K7">
+        <v>0.9752</v>
+      </c>
+      <c r="L7">
+        <f>AVERAGE(B7:K7)</f>
+        <v>0.97118</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0.9602</v>
+      </c>
+      <c r="C8">
+        <v>0.9557</v>
+      </c>
+      <c r="D8">
+        <v>0.9358</v>
+      </c>
+      <c r="E8">
+        <v>0.9506</v>
+      </c>
+      <c r="F8">
+        <v>0.9701</v>
+      </c>
+      <c r="G8">
+        <v>0.9505</v>
+      </c>
+      <c r="H8">
+        <v>0.9505</v>
+      </c>
+      <c r="I8">
+        <v>0.931</v>
+      </c>
+      <c r="J8">
+        <v>0.9266</v>
+      </c>
+      <c r="K8">
+        <v>0.9553</v>
+      </c>
+      <c r="L8">
+        <f>AVERAGE(B8:K8)</f>
+        <v>0.94863</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0.8989</v>
+      </c>
+      <c r="C9">
+        <v>0.9652</v>
+      </c>
+      <c r="D9">
+        <v>0.9558</v>
+      </c>
+      <c r="E9">
+        <v>0.9554</v>
+      </c>
+      <c r="F9">
+        <v>0.9558</v>
+      </c>
+      <c r="G9">
+        <v>0.8945</v>
+      </c>
+      <c r="H9">
+        <v>0.9267</v>
+      </c>
+      <c r="I9">
+        <v>0.9457</v>
+      </c>
+      <c r="J9">
+        <v>0.9361</v>
+      </c>
+      <c r="K9">
+        <v>0.9127</v>
+      </c>
+      <c r="L9">
+        <f>AVERAGE(B9:K9)</f>
+        <v>0.93468</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0.9752</v>
+      </c>
+      <c r="C10">
+        <v>0.9702</v>
+      </c>
+      <c r="D10">
+        <v>0.9369</v>
+      </c>
+      <c r="E10">
+        <v>0.9801</v>
+      </c>
+      <c r="F10">
+        <v>0.9801</v>
+      </c>
+      <c r="G10">
+        <v>0.9704</v>
+      </c>
+      <c r="H10">
+        <v>0.9851</v>
+      </c>
+      <c r="I10">
+        <v>0.9752</v>
+      </c>
+      <c r="J10">
+        <v>0.9801</v>
+      </c>
+      <c r="K10">
+        <v>0.9851</v>
+      </c>
+      <c r="L10">
+        <f>AVERAGE(B10:K10)</f>
+        <v>0.97384</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0.946</v>
+      </c>
+      <c r="C11">
+        <v>0.9655</v>
+      </c>
+      <c r="D11">
+        <v>0.9271</v>
+      </c>
+      <c r="E11">
+        <v>0.9801</v>
+      </c>
+      <c r="F11">
+        <v>0.9703</v>
+      </c>
+      <c r="G11">
+        <v>0.9508</v>
+      </c>
+      <c r="H11">
+        <v>0.9558</v>
+      </c>
+      <c r="I11">
+        <v>0.9752</v>
+      </c>
+      <c r="J11">
+        <v>0.9653</v>
+      </c>
+      <c r="K11">
+        <v>0.9605</v>
+      </c>
+      <c r="L11">
+        <f>AVERAGE(B11:K11)</f>
+        <v>0.95966</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.946</v>
+      </c>
+      <c r="C12">
+        <v>0.9411</v>
+      </c>
+      <c r="D12">
+        <v>0.9459</v>
+      </c>
+      <c r="E12">
+        <v>0.9411</v>
+      </c>
+      <c r="F12">
+        <v>0.9507</v>
+      </c>
+      <c r="G12">
+        <v>0.9413</v>
+      </c>
+      <c r="H12">
+        <v>0.9507</v>
+      </c>
+      <c r="I12">
+        <v>0.927</v>
+      </c>
+      <c r="J12">
+        <v>0.9411</v>
+      </c>
+      <c r="K12">
+        <v>0.9317</v>
+      </c>
+      <c r="L12">
+        <f>AVERAGE(B12:K12)</f>
+        <v>0.94166</v>
+      </c>
+      <c r="M12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="12:12">
+      <c r="L13" s="1">
+        <f>AVERAGE(L3:L12)</f>
+        <v>0.954622</v>
       </c>
     </row>
   </sheetData>
